--- a/Code/Results/Cases/Case_2_144/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_144/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.144455614660785</v>
+        <v>0.9105276959072057</v>
       </c>
       <c r="C2">
-        <v>0.08501496198614333</v>
+        <v>0.1289059752690278</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08038359989398813</v>
+        <v>0.1681665655645261</v>
       </c>
       <c r="F2">
-        <v>1.856654907461035</v>
+        <v>2.908886162381549</v>
       </c>
       <c r="G2">
-        <v>1.29103667499642</v>
+        <v>1.833931374225813</v>
       </c>
       <c r="H2">
-        <v>0.8683253456910052</v>
+        <v>1.591573240477217</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08053046585967261</v>
+        <v>0.1243362763011104</v>
       </c>
       <c r="K2">
-        <v>0.8658557668548212</v>
+        <v>0.4391681502629865</v>
       </c>
       <c r="L2">
-        <v>0.2609287610888913</v>
+        <v>0.3355767958224476</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9994923778543523</v>
+        <v>0.876344550185479</v>
       </c>
       <c r="C3">
-        <v>0.08298340614379285</v>
+        <v>0.1280678409840661</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07456858090938212</v>
+        <v>0.1675709846273108</v>
       </c>
       <c r="F3">
-        <v>1.759805041098417</v>
+        <v>2.898344445644398</v>
       </c>
       <c r="G3">
-        <v>1.243782434323748</v>
+        <v>1.829596865680884</v>
       </c>
       <c r="H3">
-        <v>0.8545524300358949</v>
+        <v>1.594610352395051</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08268716847845914</v>
+        <v>0.1247942283774099</v>
       </c>
       <c r="K3">
-        <v>0.7501012106322378</v>
+        <v>0.4090509805716351</v>
       </c>
       <c r="L3">
-        <v>0.2312692433689705</v>
+        <v>0.3298141176898355</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9114083824013903</v>
+        <v>0.8558412150274251</v>
       </c>
       <c r="C4">
-        <v>0.08173569343781395</v>
+        <v>0.1275401981906725</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07107689752541901</v>
+        <v>0.1672672887482243</v>
       </c>
       <c r="F4">
-        <v>1.702984414761858</v>
+        <v>2.893139092647516</v>
       </c>
       <c r="G4">
-        <v>1.216838177893834</v>
+        <v>1.827767304001313</v>
       </c>
       <c r="H4">
-        <v>0.84726084050385</v>
+        <v>1.597041861104117</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08403623215674427</v>
+        <v>0.1250854085177577</v>
       </c>
       <c r="K4">
-        <v>0.6795742491215151</v>
+        <v>0.3907772885610967</v>
       </c>
       <c r="L4">
-        <v>0.2132831523390593</v>
+        <v>0.3264355330072135</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8757198445136964</v>
+        <v>0.8476083872305367</v>
       </c>
       <c r="C5">
-        <v>0.08122666648793242</v>
+        <v>0.1273218951867925</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06967275962109554</v>
+        <v>0.1671591665797223</v>
       </c>
       <c r="F5">
-        <v>1.680456740171252</v>
+        <v>2.891336627530237</v>
       </c>
       <c r="G5">
-        <v>1.206349028858256</v>
+        <v>1.827230699284783</v>
       </c>
       <c r="H5">
-        <v>0.8445690217907327</v>
+        <v>1.598175239731461</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08459230395397466</v>
+        <v>0.1252065843288523</v>
       </c>
       <c r="K5">
-        <v>0.650951085806156</v>
+        <v>0.3833857529157285</v>
       </c>
       <c r="L5">
-        <v>0.2060053206637491</v>
+        <v>0.3250990359969848</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8698055286211854</v>
+        <v>0.8462487406710295</v>
       </c>
       <c r="C6">
-        <v>0.0811420946656547</v>
+        <v>0.1272854475149785</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06944070648703971</v>
+        <v>0.1671421587809014</v>
       </c>
       <c r="F6">
-        <v>1.676752846498829</v>
+        <v>2.891056584358907</v>
       </c>
       <c r="G6">
-        <v>1.204636125474039</v>
+        <v>1.827154210597598</v>
       </c>
       <c r="H6">
-        <v>0.8441385556747178</v>
+        <v>1.598372044664529</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08468502289691759</v>
+        <v>0.1252268576535389</v>
       </c>
       <c r="K6">
-        <v>0.6462047363083627</v>
+        <v>0.3821617314089849</v>
       </c>
       <c r="L6">
-        <v>0.2047998232526993</v>
+        <v>0.3248795500738595</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9109262716880551</v>
+        <v>0.8557296878763054</v>
       </c>
       <c r="C7">
-        <v>0.08172883146727727</v>
+        <v>0.1275372673894957</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07105788625487008</v>
+        <v>0.1672657672000071</v>
       </c>
       <c r="F7">
-        <v>1.702678107893576</v>
+        <v>2.893113493225684</v>
       </c>
       <c r="G7">
-        <v>1.2166947680563</v>
+        <v>1.827759221400314</v>
       </c>
       <c r="H7">
-        <v>0.8472234228757429</v>
+        <v>1.597056569175976</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08404370586178844</v>
+        <v>0.1250870325383779</v>
       </c>
       <c r="K7">
-        <v>0.6791877787712934</v>
+        <v>0.3906773801483752</v>
       </c>
       <c r="L7">
-        <v>0.2131847981344777</v>
+        <v>0.3264173451656376</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.094264341162926</v>
+        <v>0.8986408741031653</v>
       </c>
       <c r="C8">
-        <v>0.08431424139896038</v>
+        <v>0.128619684244331</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07836157893826012</v>
+        <v>0.167948370566851</v>
       </c>
       <c r="F8">
-        <v>1.822688351524619</v>
+        <v>2.904988390327063</v>
       </c>
       <c r="G8">
-        <v>1.274295348145841</v>
+        <v>1.832264050410913</v>
       </c>
       <c r="H8">
-        <v>0.8633263215992457</v>
+        <v>1.592502823023423</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08126898470448607</v>
+        <v>0.1244921060335256</v>
       </c>
       <c r="K8">
-        <v>0.8258174155086522</v>
+        <v>0.4287385540537514</v>
       </c>
       <c r="L8">
-        <v>0.2506523998983425</v>
+        <v>0.333556754969095</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.462394407642904</v>
+        <v>0.9866267246038376</v>
       </c>
       <c r="C9">
-        <v>0.08940610406658678</v>
+        <v>0.1306394333851912</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09336053262720867</v>
+        <v>0.1697769743733417</v>
       </c>
       <c r="F9">
-        <v>2.080865074160855</v>
+        <v>2.938331264062384</v>
       </c>
       <c r="G9">
-        <v>1.40511270798379</v>
+        <v>1.847710540038662</v>
       </c>
       <c r="H9">
-        <v>0.9047972262802233</v>
+        <v>1.588069907156793</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07602150660561424</v>
+        <v>0.1234045642069277</v>
       </c>
       <c r="K9">
-        <v>1.118696281292301</v>
+        <v>0.5051033847910276</v>
       </c>
       <c r="L9">
-        <v>0.3261526103905368</v>
+        <v>0.3488194228217765</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.74003951701593</v>
+        <v>1.053599795163592</v>
       </c>
       <c r="C10">
-        <v>0.0931984125868901</v>
+        <v>0.1320614003870162</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1048704729427747</v>
+        <v>0.1714170028822757</v>
       </c>
       <c r="F10">
-        <v>2.287244518637465</v>
+        <v>2.96896647282297</v>
       </c>
       <c r="G10">
-        <v>1.5142766450534</v>
+        <v>1.863110667007192</v>
       </c>
       <c r="H10">
-        <v>0.9422735524763084</v>
+        <v>1.587556593163072</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07227949956834401</v>
+        <v>0.1226534586224712</v>
       </c>
       <c r="K10">
-        <v>1.338650852978503</v>
+        <v>0.5622603510783506</v>
       </c>
       <c r="L10">
-        <v>0.3832238035017923</v>
+        <v>0.3607973564195674</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.868379333344166</v>
+        <v>1.084572105687954</v>
       </c>
       <c r="C11">
-        <v>0.09494437403331801</v>
+        <v>0.1326950122750716</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1102319341412823</v>
+        <v>0.1722270523354581</v>
       </c>
       <c r="F11">
-        <v>2.385431925757786</v>
+        <v>2.984238168224877</v>
       </c>
       <c r="G11">
-        <v>1.567299892899001</v>
+        <v>1.871000965257309</v>
       </c>
       <c r="H11">
-        <v>0.9610825598339545</v>
+        <v>1.587919380379077</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07060075550712597</v>
+        <v>0.1223220980913728</v>
       </c>
       <c r="K11">
-        <v>1.440123965354246</v>
+        <v>0.5884911498303893</v>
       </c>
       <c r="L11">
-        <v>0.4096236307637184</v>
+        <v>0.3664114666553644</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.917314127257328</v>
+        <v>1.096372979181382</v>
       </c>
       <c r="C12">
-        <v>0.09560941917252563</v>
+        <v>0.1329330512386449</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.112281920691526</v>
+        <v>0.1725429567639623</v>
       </c>
       <c r="F12">
-        <v>2.423293232583347</v>
+        <v>2.990213260911219</v>
       </c>
       <c r="G12">
-        <v>1.587910432392675</v>
+        <v>1.874116341184759</v>
       </c>
       <c r="H12">
-        <v>0.9684800992599776</v>
+        <v>1.588142528265934</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06996836714061416</v>
+        <v>0.1221981006454111</v>
       </c>
       <c r="K12">
-        <v>1.478786482656744</v>
+        <v>0.5984569984952941</v>
       </c>
       <c r="L12">
-        <v>0.4196915291692704</v>
+        <v>0.3685610397621275</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.906759517654592</v>
+        <v>1.093828239588191</v>
       </c>
       <c r="C13">
-        <v>0.09546600159453789</v>
+        <v>0.1328818694757388</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1118395144535178</v>
+        <v>0.1724745145901849</v>
       </c>
       <c r="F13">
-        <v>2.415107858565719</v>
+        <v>2.988917877419084</v>
       </c>
       <c r="G13">
-        <v>1.583447121096981</v>
+        <v>1.873439714700964</v>
       </c>
       <c r="H13">
-        <v>0.9668743092958891</v>
+        <v>1.588090654457801</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07010441684103697</v>
+        <v>0.1222247398591874</v>
       </c>
       <c r="K13">
-        <v>1.470448718603365</v>
+        <v>0.5963092188891892</v>
       </c>
       <c r="L13">
-        <v>0.4175199427508716</v>
+        <v>0.3680970418866991</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.872398252841094</v>
+        <v>1.085541523404004</v>
       </c>
       <c r="C14">
-        <v>0.09499900430900965</v>
+        <v>0.1327146338319452</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1104001825636054</v>
+        <v>0.1722528587382577</v>
       </c>
       <c r="F14">
-        <v>2.388532804891611</v>
+        <v>2.9847258941939</v>
       </c>
       <c r="G14">
-        <v>1.568984585968536</v>
+        <v>1.871254712439082</v>
       </c>
       <c r="H14">
-        <v>0.9616855171832412</v>
+        <v>1.587936019841038</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07054866245147906</v>
+        <v>0.1223118670679648</v>
       </c>
       <c r="K14">
-        <v>1.443299804675632</v>
+        <v>0.5893103898606853</v>
       </c>
       <c r="L14">
-        <v>0.410450455113164</v>
+        <v>0.366587840499534</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.851395970166692</v>
+        <v>1.080475077817937</v>
       </c>
       <c r="C15">
-        <v>0.09471348947899827</v>
+        <v>0.1326119505113965</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1095211698261487</v>
+        <v>0.1721182791947165</v>
       </c>
       <c r="F15">
-        <v>2.372345253967993</v>
+        <v>2.982183191146405</v>
       </c>
       <c r="G15">
-        <v>1.560196619420481</v>
+        <v>1.869932946651033</v>
       </c>
       <c r="H15">
-        <v>0.9585437219410267</v>
+        <v>1.587852471881035</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07082120560746219</v>
+        <v>0.1223654278722286</v>
       </c>
       <c r="K15">
-        <v>1.426702200209661</v>
+        <v>0.5850276715947302</v>
       </c>
       <c r="L15">
-        <v>0.4061296632785343</v>
+        <v>0.3656664845370443</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.73169674017808</v>
+        <v>1.051585826340613</v>
       </c>
       <c r="C16">
-        <v>0.09308480298929211</v>
+        <v>0.1320197265370062</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1045227542127485</v>
+        <v>0.1713653480180497</v>
       </c>
       <c r="F16">
-        <v>2.28091944295015</v>
+        <v>2.96799530506803</v>
       </c>
       <c r="G16">
-        <v>1.510883154156971</v>
+        <v>1.862612843204857</v>
       </c>
       <c r="H16">
-        <v>0.9410815891284585</v>
+        <v>1.58754488499801</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07238967691532583</v>
+        <v>0.1226753212772516</v>
       </c>
       <c r="K16">
-        <v>1.33205060193086</v>
+        <v>0.5605507111266377</v>
       </c>
       <c r="L16">
-        <v>0.3815079830566219</v>
+        <v>0.3604337754104279</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.658815951771118</v>
+        <v>1.033992485553512</v>
       </c>
       <c r="C17">
-        <v>0.09209159425520852</v>
+        <v>0.1316530294939433</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1014896830904632</v>
+        <v>0.1709198064535222</v>
       </c>
       <c r="F17">
-        <v>2.225976829002406</v>
+        <v>2.959633555764086</v>
       </c>
       <c r="G17">
-        <v>1.481525410201044</v>
+        <v>1.858348984163399</v>
       </c>
       <c r="H17">
-        <v>0.930835016943405</v>
+        <v>1.587508931331257</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07335785805211481</v>
+        <v>0.1228680724650291</v>
       </c>
       <c r="K17">
-        <v>1.274370088027126</v>
+        <v>0.5455935820094169</v>
       </c>
       <c r="L17">
-        <v>0.3665209334285322</v>
+        <v>0.35726591439402</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.617085899814185</v>
+        <v>1.023920906067673</v>
       </c>
       <c r="C18">
-        <v>0.09152222756461725</v>
+        <v>0.1314408675447716</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09975684889471026</v>
+        <v>0.1706695687010864</v>
       </c>
       <c r="F18">
-        <v>2.194776493811247</v>
+        <v>2.954949811613858</v>
       </c>
       <c r="G18">
-        <v>1.464953132453388</v>
+        <v>1.855979781412145</v>
       </c>
       <c r="H18">
-        <v>0.9251057846955177</v>
+        <v>1.587544376610992</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07391694722950248</v>
+        <v>0.1229799094708417</v>
       </c>
       <c r="K18">
-        <v>1.241324764876225</v>
+        <v>0.537012281177681</v>
       </c>
       <c r="L18">
-        <v>0.3579414810365904</v>
+        <v>0.3554594103410977</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.602988062912232</v>
+        <v>1.020519038219874</v>
       </c>
       <c r="C19">
-        <v>0.09132975061126203</v>
+        <v>0.1313688186222635</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09917210330737092</v>
+        <v>0.1705858788617292</v>
       </c>
       <c r="F19">
-        <v>2.184279732015384</v>
+        <v>2.953385568336898</v>
       </c>
       <c r="G19">
-        <v>1.459394496038527</v>
+        <v>1.855191901118246</v>
       </c>
       <c r="H19">
-        <v>0.9231935559995748</v>
+        <v>1.58756601663859</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07410662803826451</v>
+        <v>0.1230179425177491</v>
       </c>
       <c r="K19">
-        <v>1.230157712915258</v>
+        <v>0.5341105247030384</v>
       </c>
       <c r="L19">
-        <v>0.355043386776714</v>
+        <v>0.3548504367395964</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.666554375806641</v>
+        <v>1.035860398712316</v>
       </c>
       <c r="C20">
-        <v>0.09219712014911607</v>
+        <v>0.1316921940691529</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1018113353077652</v>
+        <v>0.1709666117808517</v>
       </c>
       <c r="F20">
-        <v>2.231783616488997</v>
+        <v>2.96051066759793</v>
       </c>
       <c r="G20">
-        <v>1.484617809529908</v>
+        <v>1.858794260556721</v>
       </c>
       <c r="H20">
-        <v>0.931908623488539</v>
+        <v>1.58750694978562</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07325456455197976</v>
+        <v>0.122847453231592</v>
       </c>
       <c r="K20">
-        <v>1.280496488441941</v>
+        <v>0.5471835555325129</v>
       </c>
       <c r="L20">
-        <v>0.3681120628714467</v>
+        <v>0.3576015285991758</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.882481533706908</v>
+        <v>1.087973573079296</v>
       </c>
       <c r="C21">
-        <v>0.09513605960468396</v>
+        <v>0.132763806382755</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1108224001360476</v>
+        <v>0.1723177162992258</v>
       </c>
       <c r="F21">
-        <v>2.396319579125617</v>
+        <v>2.985951969735169</v>
       </c>
       <c r="G21">
-        <v>1.573217746169234</v>
+        <v>1.871893038326704</v>
       </c>
       <c r="H21">
-        <v>0.963201945112985</v>
+        <v>1.587979111875654</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07041808727093235</v>
+        <v>0.1222862355044714</v>
       </c>
       <c r="K21">
-        <v>1.451267389084791</v>
+        <v>0.5913652268527585</v>
       </c>
       <c r="L21">
-        <v>0.4125249456801185</v>
+        <v>0.3670304892659146</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.025579174392135</v>
+        <v>1.122453958310416</v>
       </c>
       <c r="C22">
-        <v>0.09707997524567702</v>
+        <v>0.1334531192588244</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1168274557366722</v>
+        <v>0.1732540900018513</v>
       </c>
       <c r="F22">
-        <v>2.507848323217885</v>
+        <v>3.003698637213247</v>
       </c>
       <c r="G22">
-        <v>1.634248085391079</v>
+        <v>1.881197089321148</v>
       </c>
       <c r="H22">
-        <v>0.9852682770413423</v>
+        <v>1.588787630563758</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06858358309113655</v>
+        <v>0.1219280820547972</v>
       </c>
       <c r="K22">
-        <v>1.564274376146557</v>
+        <v>0.6204316661130918</v>
       </c>
       <c r="L22">
-        <v>0.4419685036941701</v>
+        <v>0.3733305393323718</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.949009415840749</v>
+        <v>1.104012705816274</v>
       </c>
       <c r="C23">
-        <v>0.09604003053071608</v>
+        <v>0.1330862278815061</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1136112613182512</v>
+        <v>0.1727494633499411</v>
       </c>
       <c r="F23">
-        <v>2.447936252631521</v>
+        <v>2.994124497480854</v>
       </c>
       <c r="G23">
-        <v>1.601372064619369</v>
+        <v>1.876163245657835</v>
       </c>
       <c r="H23">
-        <v>0.9733356296788145</v>
+        <v>1.588310357680626</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06956094758674958</v>
+        <v>0.1221184460235953</v>
       </c>
       <c r="K23">
-        <v>1.503820613206528</v>
+        <v>0.6049009445721367</v>
       </c>
       <c r="L23">
-        <v>0.4262129627063587</v>
+        <v>0.3699555313061182</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.663055307675705</v>
+        <v>1.035015780994655</v>
       </c>
       <c r="C24">
-        <v>0.09214940684367789</v>
+        <v>0.1316744919497808</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1016658824550127</v>
+        <v>0.1709454326804227</v>
       </c>
       <c r="F24">
-        <v>2.229157167282366</v>
+        <v>2.96011374051696</v>
       </c>
       <c r="G24">
-        <v>1.483218786624093</v>
+        <v>1.858592695229078</v>
       </c>
       <c r="H24">
-        <v>0.9314227440610523</v>
+        <v>1.587507670836374</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07330125584820468</v>
+        <v>0.122856772003388</v>
       </c>
       <c r="K24">
-        <v>1.27772638407464</v>
+        <v>0.5464646731916787</v>
       </c>
       <c r="L24">
-        <v>0.3673925992085003</v>
+        <v>0.3574497514909041</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.361693917696641</v>
+        <v>0.9624144152952283</v>
       </c>
       <c r="C25">
-        <v>0.08802259117086209</v>
+        <v>0.1301039714613914</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.08922281180209168</v>
+        <v>0.1692300545969907</v>
       </c>
       <c r="F25">
-        <v>2.008302946678498</v>
+        <v>2.928233756356803</v>
       </c>
       <c r="G25">
-        <v>1.367597879140362</v>
+        <v>1.842821827432658</v>
       </c>
       <c r="H25">
-        <v>0.892423015910083</v>
+        <v>1.588787485082506</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07742084639810898</v>
+        <v>0.1236903371600371</v>
       </c>
       <c r="K25">
-        <v>1.038743622287598</v>
+        <v>0.4842599168963773</v>
       </c>
       <c r="L25">
-        <v>0.3054747865580367</v>
+        <v>0.3445558581197616</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_144/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_144/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9105276959072057</v>
+        <v>1.144455614660842</v>
       </c>
       <c r="C2">
-        <v>0.1289059752690278</v>
+        <v>0.08501496198626768</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1681665655645261</v>
+        <v>0.08038359989400234</v>
       </c>
       <c r="F2">
-        <v>2.908886162381549</v>
+        <v>1.856654907461049</v>
       </c>
       <c r="G2">
-        <v>1.833931374225813</v>
+        <v>1.291036674996406</v>
       </c>
       <c r="H2">
-        <v>1.591573240477217</v>
+        <v>0.8683253456910052</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1243362763011104</v>
+        <v>0.08053046585967039</v>
       </c>
       <c r="K2">
-        <v>0.4391681502629865</v>
+        <v>0.8658557668548212</v>
       </c>
       <c r="L2">
-        <v>0.3355767958224476</v>
+        <v>0.2609287610888913</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.876344550185479</v>
+        <v>0.9994923778544091</v>
       </c>
       <c r="C3">
-        <v>0.1280678409840661</v>
+        <v>0.0829834061437964</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1675709846273108</v>
+        <v>0.07456858090938567</v>
       </c>
       <c r="F3">
-        <v>2.898344445644398</v>
+        <v>1.759805041098417</v>
       </c>
       <c r="G3">
-        <v>1.829596865680884</v>
+        <v>1.243782434323748</v>
       </c>
       <c r="H3">
-        <v>1.594610352395051</v>
+        <v>0.8545524300358807</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1247942283774099</v>
+        <v>0.08268716847852797</v>
       </c>
       <c r="K3">
-        <v>0.4090509805716351</v>
+        <v>0.750101210632323</v>
       </c>
       <c r="L3">
-        <v>0.3298141176898355</v>
+        <v>0.2312692433689847</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8558412150274251</v>
+        <v>0.9114083824016177</v>
       </c>
       <c r="C4">
-        <v>0.1275401981906725</v>
+        <v>0.08173569343805198</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1672672887482243</v>
+        <v>0.07107689752541901</v>
       </c>
       <c r="F4">
-        <v>2.893139092647516</v>
+        <v>1.702984414761886</v>
       </c>
       <c r="G4">
-        <v>1.827767304001313</v>
+        <v>1.216838177893834</v>
       </c>
       <c r="H4">
-        <v>1.597041861104117</v>
+        <v>0.8472608405038358</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1250854085177577</v>
+        <v>0.08403623215677714</v>
       </c>
       <c r="K4">
-        <v>0.3907772885610967</v>
+        <v>0.6795742491214867</v>
       </c>
       <c r="L4">
-        <v>0.3264355330072135</v>
+        <v>0.213283152338974</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8476083872305367</v>
+        <v>0.8757198445136396</v>
       </c>
       <c r="C5">
-        <v>0.1273218951867925</v>
+        <v>0.08122666648768373</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1671591665797223</v>
+        <v>0.06967275962109198</v>
       </c>
       <c r="F5">
-        <v>2.891336627530237</v>
+        <v>1.680456740171223</v>
       </c>
       <c r="G5">
-        <v>1.827230699284783</v>
+        <v>1.206349028858227</v>
       </c>
       <c r="H5">
-        <v>1.598175239731461</v>
+        <v>0.8445690217907185</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1252065843288523</v>
+        <v>0.08459230395393735</v>
       </c>
       <c r="K5">
-        <v>0.3833857529157285</v>
+        <v>0.6509510858060281</v>
       </c>
       <c r="L5">
-        <v>0.3250990359969848</v>
+        <v>0.2060053206637491</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8462487406710295</v>
+        <v>0.8698055286211002</v>
       </c>
       <c r="C6">
-        <v>0.1272854475149785</v>
+        <v>0.08114209466564759</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1671421587809014</v>
+        <v>0.06944070648701484</v>
       </c>
       <c r="F6">
-        <v>2.891056584358907</v>
+        <v>1.676752846498815</v>
       </c>
       <c r="G6">
-        <v>1.827154210597598</v>
+        <v>1.204636125474039</v>
       </c>
       <c r="H6">
-        <v>1.598372044664529</v>
+        <v>0.8441385556747036</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1252268576535389</v>
+        <v>0.08468502289689406</v>
       </c>
       <c r="K6">
-        <v>0.3821617314089849</v>
+        <v>0.6462047363084338</v>
       </c>
       <c r="L6">
-        <v>0.3248795500738595</v>
+        <v>0.2047998232526425</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8557296878763054</v>
+        <v>0.910926271687913</v>
       </c>
       <c r="C7">
-        <v>0.1275372673894957</v>
+        <v>0.08172883146725951</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1672657672000071</v>
+        <v>0.07105788625487719</v>
       </c>
       <c r="F7">
-        <v>2.893113493225684</v>
+        <v>1.702678107893576</v>
       </c>
       <c r="G7">
-        <v>1.827759221400314</v>
+        <v>1.216694768056357</v>
       </c>
       <c r="H7">
-        <v>1.597056569175976</v>
+        <v>0.8472234228757145</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1250870325383779</v>
+        <v>0.08404370586185417</v>
       </c>
       <c r="K7">
-        <v>0.3906773801483752</v>
+        <v>0.6791877787713645</v>
       </c>
       <c r="L7">
-        <v>0.3264173451656376</v>
+        <v>0.2131847981344919</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8986408741031653</v>
+        <v>1.094264341162869</v>
       </c>
       <c r="C8">
-        <v>0.128619684244331</v>
+        <v>0.08431424139893906</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.167948370566851</v>
+        <v>0.07836157893827078</v>
       </c>
       <c r="F8">
-        <v>2.904988390327063</v>
+        <v>1.822688351524619</v>
       </c>
       <c r="G8">
-        <v>1.832264050410913</v>
+        <v>1.274295348145927</v>
       </c>
       <c r="H8">
-        <v>1.592502823023423</v>
+        <v>0.8633263215991462</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1244921060335256</v>
+        <v>0.08126898470451227</v>
       </c>
       <c r="K8">
-        <v>0.4287385540537514</v>
+        <v>0.825817415508709</v>
       </c>
       <c r="L8">
-        <v>0.333556754969095</v>
+        <v>0.2506523998983141</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9866267246038376</v>
+        <v>1.462394407642932</v>
       </c>
       <c r="C9">
-        <v>0.1306394333851912</v>
+        <v>0.08940610406670757</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1697769743733417</v>
+        <v>0.09336053262722643</v>
       </c>
       <c r="F9">
-        <v>2.938331264062384</v>
+        <v>2.08086507416084</v>
       </c>
       <c r="G9">
-        <v>1.847710540038662</v>
+        <v>1.405112707983832</v>
       </c>
       <c r="H9">
-        <v>1.588069907156793</v>
+        <v>0.9047972262800954</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1234045642069277</v>
+        <v>0.07602150660571727</v>
       </c>
       <c r="K9">
-        <v>0.5051033847910276</v>
+        <v>1.118696281292358</v>
       </c>
       <c r="L9">
-        <v>0.3488194228217765</v>
+        <v>0.3261526103905226</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.053599795163592</v>
+        <v>1.740039517015987</v>
       </c>
       <c r="C10">
-        <v>0.1320614003870162</v>
+        <v>0.09319841258676576</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1714170028822757</v>
+        <v>0.1048704729427605</v>
       </c>
       <c r="F10">
-        <v>2.96896647282297</v>
+        <v>2.287244518637479</v>
       </c>
       <c r="G10">
-        <v>1.863110667007192</v>
+        <v>1.5142766450534</v>
       </c>
       <c r="H10">
-        <v>1.587556593163072</v>
+        <v>0.9422735524763084</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1226534586224712</v>
+        <v>0.07227949956826762</v>
       </c>
       <c r="K10">
-        <v>0.5622603510783506</v>
+        <v>1.338650852978503</v>
       </c>
       <c r="L10">
-        <v>0.3607973564195674</v>
+        <v>0.3832238035018207</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.084572105687954</v>
+        <v>1.868379333344222</v>
       </c>
       <c r="C11">
-        <v>0.1326950122750716</v>
+        <v>0.09494437403319722</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1722270523354581</v>
+        <v>0.1102319341412752</v>
       </c>
       <c r="F11">
-        <v>2.984238168224877</v>
+        <v>2.385431925757757</v>
       </c>
       <c r="G11">
-        <v>1.871000965257309</v>
+        <v>1.567299892898973</v>
       </c>
       <c r="H11">
-        <v>1.587919380379077</v>
+        <v>0.9610825598340966</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1223220980913728</v>
+        <v>0.07060075550716727</v>
       </c>
       <c r="K11">
-        <v>0.5884911498303893</v>
+        <v>1.440123965354161</v>
       </c>
       <c r="L11">
-        <v>0.3664114666553644</v>
+        <v>0.4096236307637326</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.096372979181382</v>
+        <v>1.917314127257526</v>
       </c>
       <c r="C12">
-        <v>0.1329330512386449</v>
+        <v>0.09560941917265353</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1725429567639623</v>
+        <v>0.1122819206915509</v>
       </c>
       <c r="F12">
-        <v>2.990213260911219</v>
+        <v>2.423293232583347</v>
       </c>
       <c r="G12">
-        <v>1.874116341184759</v>
+        <v>1.587910432392647</v>
       </c>
       <c r="H12">
-        <v>1.588142528265934</v>
+        <v>0.9684800992599776</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1221981006454111</v>
+        <v>0.06996836714057864</v>
       </c>
       <c r="K12">
-        <v>0.5984569984952941</v>
+        <v>1.478786482656773</v>
       </c>
       <c r="L12">
-        <v>0.3685610397621275</v>
+        <v>0.4196915291693273</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.093828239588191</v>
+        <v>1.906759517654478</v>
       </c>
       <c r="C13">
-        <v>0.1328818694757388</v>
+        <v>0.09546600159434604</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1724745145901849</v>
+        <v>0.1118395144535462</v>
       </c>
       <c r="F13">
-        <v>2.988917877419084</v>
+        <v>2.415107858565733</v>
       </c>
       <c r="G13">
-        <v>1.873439714700964</v>
+        <v>1.583447121096981</v>
       </c>
       <c r="H13">
-        <v>1.588090654457801</v>
+        <v>0.9668743092958891</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1222247398591874</v>
+        <v>0.07010441684101654</v>
       </c>
       <c r="K13">
-        <v>0.5963092188891892</v>
+        <v>1.470448718603308</v>
       </c>
       <c r="L13">
-        <v>0.3680970418866991</v>
+        <v>0.4175199427507152</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.085541523404004</v>
+        <v>1.872398252841094</v>
       </c>
       <c r="C14">
-        <v>0.1327146338319452</v>
+        <v>0.09499900430889596</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1722528587382577</v>
+        <v>0.1104001825636374</v>
       </c>
       <c r="F14">
-        <v>2.9847258941939</v>
+        <v>2.388532804891611</v>
       </c>
       <c r="G14">
-        <v>1.871254712439082</v>
+        <v>1.568984585968536</v>
       </c>
       <c r="H14">
-        <v>1.587936019841038</v>
+        <v>0.9616855171832412</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1223118670679648</v>
+        <v>0.07054866245147373</v>
       </c>
       <c r="K14">
-        <v>0.5893103898606853</v>
+        <v>1.443299804675519</v>
       </c>
       <c r="L14">
-        <v>0.366587840499534</v>
+        <v>0.4104504551132777</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.080475077817937</v>
+        <v>1.851395970166664</v>
       </c>
       <c r="C15">
-        <v>0.1326119505113965</v>
+        <v>0.09471348947887037</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1721182791947165</v>
+        <v>0.1095211698261451</v>
       </c>
       <c r="F15">
-        <v>2.982183191146405</v>
+        <v>2.372345253968035</v>
       </c>
       <c r="G15">
-        <v>1.869932946651033</v>
+        <v>1.560196619420452</v>
       </c>
       <c r="H15">
-        <v>1.587852471881035</v>
+        <v>0.9585437219411403</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1223654278722286</v>
+        <v>0.07082120560739646</v>
       </c>
       <c r="K15">
-        <v>0.5850276715947302</v>
+        <v>1.426702200209746</v>
       </c>
       <c r="L15">
-        <v>0.3656664845370443</v>
+        <v>0.4061296632784206</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.051585826340613</v>
+        <v>1.731696740178023</v>
       </c>
       <c r="C16">
-        <v>0.1320197265370062</v>
+        <v>0.09308480298929567</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1713653480180497</v>
+        <v>0.1045227542127023</v>
       </c>
       <c r="F16">
-        <v>2.96799530506803</v>
+        <v>2.280919442950122</v>
       </c>
       <c r="G16">
-        <v>1.862612843204857</v>
+        <v>1.510883154156858</v>
       </c>
       <c r="H16">
-        <v>1.58754488499801</v>
+        <v>0.9410815891284585</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1226753212772516</v>
+        <v>0.07238967691532139</v>
       </c>
       <c r="K16">
-        <v>0.5605507111266377</v>
+        <v>1.332050601930831</v>
       </c>
       <c r="L16">
-        <v>0.3604337754104279</v>
+        <v>0.3815079830566219</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.033992485553512</v>
+        <v>1.658815951771118</v>
       </c>
       <c r="C17">
-        <v>0.1316530294939433</v>
+        <v>0.0920915942553826</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1709198064535222</v>
+        <v>0.1014896830904668</v>
       </c>
       <c r="F17">
-        <v>2.959633555764086</v>
+        <v>2.225976829002448</v>
       </c>
       <c r="G17">
-        <v>1.858348984163399</v>
+        <v>1.481525410201073</v>
       </c>
       <c r="H17">
-        <v>1.587508931331257</v>
+        <v>0.930835016943405</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1228680724650291</v>
+        <v>0.0733578580520784</v>
       </c>
       <c r="K17">
-        <v>0.5455935820094169</v>
+        <v>1.274370088027126</v>
       </c>
       <c r="L17">
-        <v>0.35726591439402</v>
+        <v>0.3665209334285038</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.023920906067673</v>
+        <v>1.617085899814242</v>
       </c>
       <c r="C18">
-        <v>0.1314408675447716</v>
+        <v>0.09152222756446093</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1706695687010864</v>
+        <v>0.09975684889468184</v>
       </c>
       <c r="F18">
-        <v>2.954949811613858</v>
+        <v>2.194776493811247</v>
       </c>
       <c r="G18">
-        <v>1.855979781412145</v>
+        <v>1.46495313245336</v>
       </c>
       <c r="H18">
-        <v>1.587544376610992</v>
+        <v>0.9251057846955177</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1229799094708417</v>
+        <v>0.07391694722952247</v>
       </c>
       <c r="K18">
-        <v>0.537012281177681</v>
+        <v>1.241324764876168</v>
       </c>
       <c r="L18">
-        <v>0.3554594103410977</v>
+        <v>0.3579414810365478</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.020519038219874</v>
+        <v>1.602988062912289</v>
       </c>
       <c r="C19">
-        <v>0.1313688186222635</v>
+        <v>0.09132975061137927</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1705858788617292</v>
+        <v>0.09917210330737447</v>
       </c>
       <c r="F19">
-        <v>2.953385568336898</v>
+        <v>2.184279732015412</v>
       </c>
       <c r="G19">
-        <v>1.855191901118246</v>
+        <v>1.459394496038499</v>
       </c>
       <c r="H19">
-        <v>1.58756601663859</v>
+        <v>0.9231935559995748</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1230179425177491</v>
+        <v>0.07410662803820811</v>
       </c>
       <c r="K19">
-        <v>0.5341105247030384</v>
+        <v>1.230157712915258</v>
       </c>
       <c r="L19">
-        <v>0.3548504367395964</v>
+        <v>0.3550433867767282</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.035860398712316</v>
+        <v>1.666554375806555</v>
       </c>
       <c r="C20">
-        <v>0.1316921940691529</v>
+        <v>0.09219712014911963</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1709666117808517</v>
+        <v>0.1018113353077403</v>
       </c>
       <c r="F20">
-        <v>2.96051066759793</v>
+        <v>2.231783616488997</v>
       </c>
       <c r="G20">
-        <v>1.858794260556721</v>
+        <v>1.48461780952988</v>
       </c>
       <c r="H20">
-        <v>1.58750694978562</v>
+        <v>0.931908623488539</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.122847453231592</v>
+        <v>0.07325456455194024</v>
       </c>
       <c r="K20">
-        <v>0.5471835555325129</v>
+        <v>1.280496488441969</v>
       </c>
       <c r="L20">
-        <v>0.3576015285991758</v>
+        <v>0.3681120628715604</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.087973573079296</v>
+        <v>1.882481533706908</v>
       </c>
       <c r="C21">
-        <v>0.132763806382755</v>
+        <v>0.09513605960515292</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1723177162992258</v>
+        <v>0.1108224001360405</v>
       </c>
       <c r="F21">
-        <v>2.985951969735169</v>
+        <v>2.396319579125617</v>
       </c>
       <c r="G21">
-        <v>1.871893038326704</v>
+        <v>1.573217746169234</v>
       </c>
       <c r="H21">
-        <v>1.587979111875654</v>
+        <v>0.963201945112985</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1222862355044714</v>
+        <v>0.0704180872708795</v>
       </c>
       <c r="K21">
-        <v>0.5913652268527585</v>
+        <v>1.451267389084734</v>
       </c>
       <c r="L21">
-        <v>0.3670304892659146</v>
+        <v>0.4125249456801754</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.122453958310416</v>
+        <v>2.025579174392192</v>
       </c>
       <c r="C22">
-        <v>0.1334531192588244</v>
+        <v>0.09707997524595413</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1732540900018513</v>
+        <v>0.1168274557366971</v>
       </c>
       <c r="F22">
-        <v>3.003698637213247</v>
+        <v>2.507848323217871</v>
       </c>
       <c r="G22">
-        <v>1.881197089321148</v>
+        <v>1.63424808539105</v>
       </c>
       <c r="H22">
-        <v>1.588787630563758</v>
+        <v>0.9852682770413423</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1219280820547972</v>
+        <v>0.06858358309111612</v>
       </c>
       <c r="K22">
-        <v>0.6204316661130918</v>
+        <v>1.5642743761465</v>
       </c>
       <c r="L22">
-        <v>0.3733305393323718</v>
+        <v>0.4419685036943122</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.104012705816274</v>
+        <v>1.949009415840578</v>
       </c>
       <c r="C23">
-        <v>0.1330862278815061</v>
+        <v>0.09604003053089372</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1727494633499411</v>
+        <v>0.1136112613181943</v>
       </c>
       <c r="F23">
-        <v>2.994124497480854</v>
+        <v>2.44793625263155</v>
       </c>
       <c r="G23">
-        <v>1.876163245657835</v>
+        <v>1.601372064619341</v>
       </c>
       <c r="H23">
-        <v>1.588310357680626</v>
+        <v>0.9733356296788429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1221184460235953</v>
+        <v>0.06956094758661457</v>
       </c>
       <c r="K23">
-        <v>0.6049009445721367</v>
+        <v>1.503820613206585</v>
       </c>
       <c r="L23">
-        <v>0.3699555313061182</v>
+        <v>0.4262129627063445</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.035015780994655</v>
+        <v>1.663055307675819</v>
       </c>
       <c r="C24">
-        <v>0.1316744919497808</v>
+        <v>0.0921494068438129</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1709454326804227</v>
+        <v>0.1016658824550127</v>
       </c>
       <c r="F24">
-        <v>2.96011374051696</v>
+        <v>2.229157167282338</v>
       </c>
       <c r="G24">
-        <v>1.858592695229078</v>
+        <v>1.483218786624121</v>
       </c>
       <c r="H24">
-        <v>1.587507670836374</v>
+        <v>0.9314227440610523</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.122856772003388</v>
+        <v>0.07330125584821445</v>
       </c>
       <c r="K24">
-        <v>0.5464646731916787</v>
+        <v>1.277726384074725</v>
       </c>
       <c r="L24">
-        <v>0.3574497514909041</v>
+        <v>0.3673925992086282</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9624144152952283</v>
+        <v>1.361693917696584</v>
       </c>
       <c r="C25">
-        <v>0.1301039714613914</v>
+        <v>0.08802259117071287</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1692300545969907</v>
+        <v>0.08922281180209168</v>
       </c>
       <c r="F25">
-        <v>2.928233756356803</v>
+        <v>2.008302946678498</v>
       </c>
       <c r="G25">
-        <v>1.842821827432658</v>
+        <v>1.367597879140433</v>
       </c>
       <c r="H25">
-        <v>1.588787485082506</v>
+        <v>0.8924230159100546</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1236903371600371</v>
+        <v>0.07742084639818225</v>
       </c>
       <c r="K25">
-        <v>0.4842599168963773</v>
+        <v>1.038743622287654</v>
       </c>
       <c r="L25">
-        <v>0.3445558581197616</v>
+        <v>0.3054747865580509</v>
       </c>
       <c r="M25">
         <v>0</v>
